--- a/xlsx/country_comparison/solidarity_support_pol_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -71,27 +59,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,487 +449,355 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.810194888022368</v>
+        <v>0.809187541057965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.635448082785049</v>
+        <v>0.643085962793994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.838825010677334</v>
+        <v>0.819942754959698</v>
       </c>
       <c r="E2" t="n">
-        <v>0.938437660681549</v>
+        <v>0.873056146222153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813022979069467</v>
+        <v>0.773791371449113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.737705665762542</v>
+        <v>0.859553623962162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.819947035810206</v>
+        <v>0.852102558492413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.873063681995478</v>
+        <v>0.808151291496163</v>
       </c>
       <c r="J2" t="n">
-        <v>0.77378042456027</v>
+        <v>0.931123356175572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.859553623962162</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.852102558492413</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.808497596646422</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.931156755907932</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5637556144528</v>
+        <v>0.563794665192873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.78794185875087</v>
+        <v>0.793366965036613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.723139403410815</v>
+        <v>0.735290211926387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.773119065399444</v>
+        <v>0.767899521650745</v>
       </c>
       <c r="E3" t="n">
-        <v>0.927892594886379</v>
+        <v>0.856662637816024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.864078784351659</v>
+        <v>0.80190982641243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.634253837180658</v>
+        <v>0.870851551659494</v>
       </c>
       <c r="H3" t="n">
-        <v>0.76768155028068</v>
+        <v>0.86802251791901</v>
       </c>
       <c r="I3" t="n">
-        <v>0.856644664914615</v>
+        <v>0.779977469932862</v>
       </c>
       <c r="J3" t="n">
-        <v>0.801915145899221</v>
+        <v>0.91765670226024</v>
       </c>
       <c r="K3" t="n">
-        <v>0.870851551659494</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.86802251791901</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.780101390875954</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.917669783935516</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.51762014577838</v>
+        <v>0.51808890832465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.730712572643564</v>
+        <v>0.748295871658231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.631344646175334</v>
+        <v>0.643308316798942</v>
       </c>
       <c r="D4" t="n">
-        <v>0.715478638358281</v>
+        <v>0.719352832772282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.874576498840428</v>
+        <v>0.773521954970104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.782359594003317</v>
+        <v>0.724550091724308</v>
       </c>
       <c r="G4" t="n">
-        <v>0.529845321786666</v>
+        <v>0.894499688071821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.719303633819018</v>
+        <v>0.900586001863265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.77334343381565</v>
+        <v>0.746047610561908</v>
       </c>
       <c r="J4" t="n">
-        <v>0.72447932812969</v>
+        <v>0.884011688881496</v>
       </c>
       <c r="K4" t="n">
-        <v>0.894499688071821</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.900586001863265</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.74599434526038</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.883785505249936</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.453137520701275</v>
+        <v>0.453402045694884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72042916037702</v>
+        <v>0.699644803977167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.618738472603098</v>
+        <v>0.596447568379874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.731972612710365</v>
+        <v>0.565647078769302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.873423556917654</v>
+        <v>0.635964936582196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.787425451430045</v>
+        <v>0.585971465473506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.586505829048438</v>
+        <v>0.814900578705803</v>
       </c>
       <c r="H5" t="n">
-        <v>0.643663760697463</v>
+        <v>0.842045082491013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.715016280569715</v>
+        <v>0.684753896310072</v>
       </c>
       <c r="J5" t="n">
-        <v>0.683046007344497</v>
+        <v>0.86203143431525</v>
       </c>
       <c r="K5" t="n">
-        <v>0.836791104476278</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.854225312098256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.695248608903176</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.861674914064375</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.454925745146132</v>
+        <v>0.471193151072884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.709723223901674</v>
+        <v>0.698715666285492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.617337210895706</v>
+        <v>0.62563884053293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.695056499414707</v>
+        <v>0.564360282838369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.889808085182302</v>
+        <v>0.656346841758792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.689889885121084</v>
+        <v>0.657746953380401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.648147298677417</v>
+        <v>0.863575793802146</v>
       </c>
       <c r="H6" t="n">
-        <v>0.698326653354326</v>
+        <v>0.871078497471275</v>
       </c>
       <c r="I6" t="n">
-        <v>0.770749628954817</v>
+        <v>0.681660037168233</v>
       </c>
       <c r="J6" t="n">
-        <v>0.710112005980071</v>
+        <v>0.839986172033593</v>
       </c>
       <c r="K6" t="n">
-        <v>0.770097780765828</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.763530693008704</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.662233888012</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.841833150567663</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.449912764380954</v>
+        <v>0.458847635276405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695892423275674</v>
+        <v>0.696886644817168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.584372916153836</v>
+        <v>0.546116992829272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.703637699243605</v>
+        <v>0.686942886007181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.874691058878406</v>
+        <v>0.742202702288568</v>
       </c>
       <c r="F7" t="n">
-        <v>0.720585612827971</v>
+        <v>0.658450500259319</v>
       </c>
       <c r="G7" t="n">
-        <v>0.555253137704848</v>
+        <v>0.883360143018035</v>
       </c>
       <c r="H7" t="n">
-        <v>0.565629754246387</v>
+        <v>0.898514990349396</v>
       </c>
       <c r="I7" t="n">
-        <v>0.635787420711812</v>
+        <v>0.74293484896282</v>
       </c>
       <c r="J7" t="n">
-        <v>0.585884636273024</v>
+        <v>0.806053340993667</v>
       </c>
       <c r="K7" t="n">
-        <v>0.814900578705803</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.842045082491013</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.684593921023679</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.862243543505739</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.470776701493796</v>
+        <v>0.468557448120917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.689528884612506</v>
+        <v>0.694962460493881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.547702169043719</v>
+        <v>0.618548578698709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.711257048966307</v>
+        <v>0.643460694813484</v>
       </c>
       <c r="E8" t="n">
-        <v>0.830771903186052</v>
+        <v>0.715145780417729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.671384648630926</v>
+        <v>0.682980405531271</v>
       </c>
       <c r="G8" t="n">
-        <v>0.519096523946397</v>
+        <v>0.836791104476278</v>
       </c>
       <c r="H8" t="n">
-        <v>0.68675058301783</v>
+        <v>0.854225312098256</v>
       </c>
       <c r="I8" t="n">
-        <v>0.742114592064449</v>
+        <v>0.6953146471654</v>
       </c>
       <c r="J8" t="n">
-        <v>0.658441896979777</v>
+        <v>0.861220065079599</v>
       </c>
       <c r="K8" t="n">
-        <v>0.883360143018035</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.898514990349396</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.742754468173158</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.8060283337184</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.46798508556117</v>
+        <v>0.454492739666233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.678161164771646</v>
+        <v>0.683174203642518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.609083225354168</v>
+        <v>0.553445646083967</v>
       </c>
       <c r="D9" t="n">
-        <v>0.689308517322073</v>
+        <v>0.514556584884823</v>
       </c>
       <c r="E9" t="n">
-        <v>0.829575093901984</v>
+        <v>0.656047851343109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.708330382280532</v>
+        <v>0.60344269229444</v>
       </c>
       <c r="G9" t="n">
-        <v>0.44831062200648</v>
+        <v>0.858825470219245</v>
       </c>
       <c r="H9" t="n">
-        <v>0.564175900170517</v>
+        <v>0.868267260484353</v>
       </c>
       <c r="I9" t="n">
-        <v>0.656108576008938</v>
+        <v>0.669358374420139</v>
       </c>
       <c r="J9" t="n">
-        <v>0.65768130761568</v>
+        <v>0.830923870403501</v>
       </c>
       <c r="K9" t="n">
-        <v>0.863575793802146</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.871078497471275</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.68171440657822</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.840256026200911</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.458447008650305</v>
+        <v>0.343601913157298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.654694159928647</v>
+        <v>0.682119272063001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.540175235132538</v>
+        <v>0.606189372320828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.671370821981205</v>
+        <v>0.698572259799889</v>
       </c>
       <c r="E10" t="n">
-        <v>0.849473568651974</v>
+        <v>0.770942809545018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.708494397058127</v>
+        <v>0.710087508866346</v>
       </c>
       <c r="G10" t="n">
-        <v>0.438857180180676</v>
+        <v>0.770097780765828</v>
       </c>
       <c r="H10" t="n">
-        <v>0.514518451856342</v>
+        <v>0.763530693008704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.655770129055238</v>
+        <v>0.661649896053245</v>
       </c>
       <c r="J10" t="n">
-        <v>0.603394058078168</v>
+        <v>0.841576010118254</v>
       </c>
       <c r="K10" t="n">
-        <v>0.858825470219245</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.868267260484353</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.669174364765743</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.831407162989625</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.343194028579595</v>
+        <v>0.450190602157014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.527869258873442</v>
+        <v>0.526319576644156</v>
       </c>
       <c r="C11" t="n">
-        <v>0.455519353824953</v>
+        <v>0.458534242678225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.483587107052056</v>
+        <v>0.432517119215557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.710735738553578</v>
+        <v>0.485374406010005</v>
       </c>
       <c r="F11" t="n">
-        <v>0.530926465800458</v>
+        <v>0.474756209508454</v>
       </c>
       <c r="G11" t="n">
-        <v>0.403161005281796</v>
+        <v>0.695189510992556</v>
       </c>
       <c r="H11" t="n">
-        <v>0.432394628509748</v>
+        <v>0.729294481740513</v>
       </c>
       <c r="I11" t="n">
-        <v>0.485115769180719</v>
+        <v>0.475175961400892</v>
       </c>
       <c r="J11" t="n">
-        <v>0.474818029457402</v>
+        <v>0.673509672793868</v>
       </c>
       <c r="K11" t="n">
-        <v>0.695189510992556</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.729294481740513</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.475439644385046</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.673725572974936</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.338656035744884</v>
+        <v>0.338595491710254</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_pol_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -449,10 +461,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.809187541057965</v>
@@ -461,33 +485,45 @@
         <v>0.643085962793994</v>
       </c>
       <c r="D2" t="n">
+        <v>0.838825010677334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.938437660681549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.813022979069467</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.737705665762542</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.819942754959698</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>0.873056146222153</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.773791371449113</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.859553623962162</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0.852102558492413</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.808151291496163</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.931123356175572</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.563794665192873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.793366965036613</v>
@@ -496,33 +532,45 @@
         <v>0.735290211926387</v>
       </c>
       <c r="D3" t="n">
+        <v>0.773119065399444</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.927892594886379</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.864078784351659</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.634253837180658</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.767899521650745</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.856662637816024</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.80190982641243</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0.870851551659494</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>0.86802251791901</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.779977469932862</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.91765670226024</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.51808890832465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.748295871658231</v>
@@ -531,33 +579,45 @@
         <v>0.643308316798942</v>
       </c>
       <c r="D4" t="n">
+        <v>0.715478638358281</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.874576498840428</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.782359594003317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.529845321786666</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.719352832772282</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>0.773521954970104</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.724550091724308</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>0.894499688071821</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>0.900586001863265</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.746047610561908</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.884011688881496</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.453402045694884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0.699644803977167</v>
@@ -566,33 +626,45 @@
         <v>0.596447568379874</v>
       </c>
       <c r="D5" t="n">
+        <v>0.703637699243605</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.874691058878406</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.720585612827971</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.555253137704848</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.565647078769302</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>0.635964936582196</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>0.585971465473506</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>0.814900578705803</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>0.842045082491013</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.684753896310072</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.86203143431525</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.471193151072884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.698715666285492</v>
@@ -601,33 +673,45 @@
         <v>0.62563884053293</v>
       </c>
       <c r="D6" t="n">
+        <v>0.689308517322073</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.829575093901984</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.708330382280532</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.44831062200648</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.564360282838369</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>0.656346841758792</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.657746953380401</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>0.863575793802146</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>0.871078497471275</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.681660037168233</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.839986172033593</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.458847635276405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.696886644817168</v>
@@ -636,33 +720,45 @@
         <v>0.546116992829272</v>
       </c>
       <c r="D7" t="n">
+        <v>0.711257048966307</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.830771903186052</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.671384648630926</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.519096523946397</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.686942886007181</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
         <v>0.742202702288568</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.658450500259319</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>0.883360143018035</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>0.898514990349396</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>0.74293484896282</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.806053340993667</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.468557448120917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.694962460493881</v>
@@ -671,33 +767,45 @@
         <v>0.618548578698709</v>
       </c>
       <c r="D8" t="n">
+        <v>0.731972612710365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.873423556917654</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.787425451430045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.586505829048438</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.643460694813484</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
         <v>0.715145780417729</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>0.682980405531271</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>0.836791104476278</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>0.854225312098256</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>0.6953146471654</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.861220065079599</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.454492739666233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0.683174203642518</v>
@@ -706,33 +814,45 @@
         <v>0.553445646083967</v>
       </c>
       <c r="D9" t="n">
+        <v>0.671370821981205</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.849473568651974</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.708494397058127</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.438857180180676</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.514556584884823</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
         <v>0.656047851343109</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>0.60344269229444</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>0.858825470219245</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>0.868267260484353</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>0.669358374420139</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.830923870403501</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.343601913157298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0.682119272063001</v>
@@ -741,33 +861,45 @@
         <v>0.606189372320828</v>
       </c>
       <c r="D10" t="n">
+        <v>0.695056499414707</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.889808085182302</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.689889885121084</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.648147298677417</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.698572259799889</v>
       </c>
-      <c r="E10" t="n">
+      <c r="I10" t="n">
         <v>0.770942809545018</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>0.710087508866346</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>0.770097780765828</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>0.763530693008704</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>0.661649896053245</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>0.841576010118254</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.450190602157014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>0.526319576644156</v>
@@ -776,27 +908,39 @@
         <v>0.458534242678225</v>
       </c>
       <c r="D11" t="n">
+        <v>0.483587107052056</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.710735738553578</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.530926465800458</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.403161005281796</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.432517119215557</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
         <v>0.485374406010005</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>0.474756209508454</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>0.695189510992556</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
         <v>0.729294481740513</v>
       </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>0.475175961400892</v>
       </c>
-      <c r="J11" t="n">
+      <c r="N11" t="n">
         <v>0.673509672793868</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.338595491710254</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_pol_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_share.xlsx
@@ -479,10 +479,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.809187541057965</v>
+        <v>0.80964450411054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.643085962793994</v>
+        <v>0.643161004583753</v>
       </c>
       <c r="D2" t="n">
         <v>0.838825010677334</v>
@@ -526,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.793366965036613</v>
+        <v>0.793302229139668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.735290211926387</v>
+        <v>0.735416680455217</v>
       </c>
       <c r="D3" t="n">
         <v>0.773119065399444</v>
@@ -547,7 +547,7 @@
         <v>0.767899521650745</v>
       </c>
       <c r="I3" t="n">
-        <v>0.856662637816024</v>
+        <v>0.856662637816023</v>
       </c>
       <c r="J3" t="n">
         <v>0.80190982641243</v>
@@ -573,10 +573,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.748295871658231</v>
+        <v>0.748783561969176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.643308316798942</v>
+        <v>0.643467636668813</v>
       </c>
       <c r="D4" t="n">
         <v>0.715478638358281</v>
@@ -609,7 +609,7 @@
         <v>0.746047610561908</v>
       </c>
       <c r="N4" t="n">
-        <v>0.884011688881496</v>
+        <v>0.884011688881497</v>
       </c>
       <c r="O4" t="n">
         <v>0.453402045694884</v>
@@ -620,10 +620,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.699644803977167</v>
+        <v>0.700580371227263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.596447568379874</v>
+        <v>0.596616280151829</v>
       </c>
       <c r="D5" t="n">
         <v>0.703637699243605</v>
@@ -638,7 +638,7 @@
         <v>0.555253137704848</v>
       </c>
       <c r="H5" t="n">
-        <v>0.565647078769302</v>
+        <v>0.565647078769301</v>
       </c>
       <c r="I5" t="n">
         <v>0.635964936582196</v>
@@ -667,10 +667,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698715666285492</v>
+        <v>0.699085587371477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.62563884053293</v>
+        <v>0.625816461291422</v>
       </c>
       <c r="D6" t="n">
         <v>0.689308517322073</v>
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696886644817168</v>
+        <v>0.696623799252374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.546116992829272</v>
+        <v>0.54606701844767</v>
       </c>
       <c r="D7" t="n">
         <v>0.711257048966307</v>
@@ -761,10 +761,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>0.694962460493881</v>
+        <v>0.694896977800978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.618548578698709</v>
+        <v>0.618522481487951</v>
       </c>
       <c r="D8" t="n">
         <v>0.731972612710365</v>
@@ -808,10 +808,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.683174203642518</v>
+        <v>0.683123223291107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553445646083967</v>
+        <v>0.553640103437198</v>
       </c>
       <c r="D9" t="n">
         <v>0.671370821981205</v>
@@ -855,10 +855,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>0.682119272063001</v>
+        <v>0.682371653787096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.606189372320828</v>
+        <v>0.606023872797876</v>
       </c>
       <c r="D10" t="n">
         <v>0.695056499414707</v>
@@ -902,10 +902,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>0.526319576644156</v>
+        <v>0.526444294027161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.458534242678225</v>
+        <v>0.458770252949589</v>
       </c>
       <c r="D11" t="n">
         <v>0.483587107052056</v>

--- a/xlsx/country_comparison/solidarity_support_pol_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_share.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -470,477 +467,444 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.80964450411054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.643161004583753</v>
+        <v>0.838825010677334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.838825010677334</v>
+        <v>0.938437660681549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.938437660681549</v>
+        <v>0.813022979069467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813022979069467</v>
+        <v>0.737705665762542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.737705665762542</v>
+        <v>0.819942754959698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.819942754959698</v>
+        <v>0.873056146222153</v>
       </c>
       <c r="I2" t="n">
-        <v>0.873056146222153</v>
+        <v>0.773791371449113</v>
       </c>
       <c r="J2" t="n">
-        <v>0.773791371449113</v>
+        <v>0.859553623962162</v>
       </c>
       <c r="K2" t="n">
-        <v>0.859553623962162</v>
+        <v>0.852102558492413</v>
       </c>
       <c r="L2" t="n">
-        <v>0.852102558492413</v>
+        <v>0.808151291496163</v>
       </c>
       <c r="M2" t="n">
-        <v>0.808151291496163</v>
+        <v>0.931123356175572</v>
       </c>
       <c r="N2" t="n">
-        <v>0.931123356175572</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.563794665192873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.793302229139668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.735416680455217</v>
+        <v>0.773119065399444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.773119065399444</v>
+        <v>0.927892594886379</v>
       </c>
       <c r="E3" t="n">
-        <v>0.927892594886379</v>
+        <v>0.864078784351659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.864078784351659</v>
+        <v>0.634253837180658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.634253837180658</v>
+        <v>0.767899521650745</v>
       </c>
       <c r="H3" t="n">
-        <v>0.767899521650745</v>
+        <v>0.856662637816023</v>
       </c>
       <c r="I3" t="n">
-        <v>0.856662637816023</v>
+        <v>0.80190982641243</v>
       </c>
       <c r="J3" t="n">
-        <v>0.80190982641243</v>
+        <v>0.870851551659494</v>
       </c>
       <c r="K3" t="n">
-        <v>0.870851551659494</v>
+        <v>0.86802251791901</v>
       </c>
       <c r="L3" t="n">
-        <v>0.86802251791901</v>
+        <v>0.779977469932862</v>
       </c>
       <c r="M3" t="n">
-        <v>0.779977469932862</v>
+        <v>0.91765670226024</v>
       </c>
       <c r="N3" t="n">
-        <v>0.91765670226024</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.51808890832465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.748783561969176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.643467636668813</v>
+        <v>0.715478638358281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.715478638358281</v>
+        <v>0.874576498840428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.874576498840428</v>
+        <v>0.782359594003317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.782359594003317</v>
+        <v>0.529845321786666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.529845321786666</v>
+        <v>0.719352832772282</v>
       </c>
       <c r="H4" t="n">
-        <v>0.719352832772282</v>
+        <v>0.773521954970104</v>
       </c>
       <c r="I4" t="n">
-        <v>0.773521954970104</v>
+        <v>0.724550091724308</v>
       </c>
       <c r="J4" t="n">
-        <v>0.724550091724308</v>
+        <v>0.894499688071821</v>
       </c>
       <c r="K4" t="n">
-        <v>0.894499688071821</v>
+        <v>0.900586001863265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.900586001863265</v>
+        <v>0.746047610561908</v>
       </c>
       <c r="M4" t="n">
-        <v>0.746047610561908</v>
+        <v>0.884011688881497</v>
       </c>
       <c r="N4" t="n">
-        <v>0.884011688881497</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.453402045694884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.700580371227263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.596616280151829</v>
+        <v>0.703637699243605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.703637699243605</v>
+        <v>0.874691058878406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.874691058878406</v>
+        <v>0.720585612827971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.720585612827971</v>
+        <v>0.555253137704848</v>
       </c>
       <c r="G5" t="n">
-        <v>0.555253137704848</v>
+        <v>0.565647078769301</v>
       </c>
       <c r="H5" t="n">
-        <v>0.565647078769301</v>
+        <v>0.635964936582196</v>
       </c>
       <c r="I5" t="n">
-        <v>0.635964936582196</v>
+        <v>0.585971465473506</v>
       </c>
       <c r="J5" t="n">
-        <v>0.585971465473506</v>
+        <v>0.814900578705803</v>
       </c>
       <c r="K5" t="n">
-        <v>0.814900578705803</v>
+        <v>0.842045082491013</v>
       </c>
       <c r="L5" t="n">
-        <v>0.842045082491013</v>
+        <v>0.684753896310072</v>
       </c>
       <c r="M5" t="n">
-        <v>0.684753896310072</v>
+        <v>0.86203143431525</v>
       </c>
       <c r="N5" t="n">
-        <v>0.86203143431525</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.471193151072884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.699085587371477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.625816461291422</v>
+        <v>0.689308517322073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.689308517322073</v>
+        <v>0.829575093901984</v>
       </c>
       <c r="E6" t="n">
-        <v>0.829575093901984</v>
+        <v>0.708330382280532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.708330382280532</v>
+        <v>0.44831062200648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.44831062200648</v>
+        <v>0.564360282838369</v>
       </c>
       <c r="H6" t="n">
-        <v>0.564360282838369</v>
+        <v>0.656346841758792</v>
       </c>
       <c r="I6" t="n">
-        <v>0.656346841758792</v>
+        <v>0.657746953380401</v>
       </c>
       <c r="J6" t="n">
-        <v>0.657746953380401</v>
+        <v>0.863575793802146</v>
       </c>
       <c r="K6" t="n">
-        <v>0.863575793802146</v>
+        <v>0.871078497471275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.871078497471275</v>
+        <v>0.681660037168233</v>
       </c>
       <c r="M6" t="n">
-        <v>0.681660037168233</v>
+        <v>0.839986172033593</v>
       </c>
       <c r="N6" t="n">
-        <v>0.839986172033593</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.458847635276405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.696623799252374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54606701844767</v>
+        <v>0.711257048966307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.711257048966307</v>
+        <v>0.830771903186052</v>
       </c>
       <c r="E7" t="n">
-        <v>0.830771903186052</v>
+        <v>0.671384648630926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.671384648630926</v>
+        <v>0.519096523946397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.519096523946397</v>
+        <v>0.686942886007181</v>
       </c>
       <c r="H7" t="n">
-        <v>0.686942886007181</v>
+        <v>0.742202702288568</v>
       </c>
       <c r="I7" t="n">
-        <v>0.742202702288568</v>
+        <v>0.658450500259319</v>
       </c>
       <c r="J7" t="n">
-        <v>0.658450500259319</v>
+        <v>0.883360143018035</v>
       </c>
       <c r="K7" t="n">
-        <v>0.883360143018035</v>
+        <v>0.898514990349396</v>
       </c>
       <c r="L7" t="n">
-        <v>0.898514990349396</v>
+        <v>0.74293484896282</v>
       </c>
       <c r="M7" t="n">
-        <v>0.74293484896282</v>
+        <v>0.806053340993667</v>
       </c>
       <c r="N7" t="n">
-        <v>0.806053340993667</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.468557448120917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.694896977800978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.618522481487951</v>
+        <v>0.731972612710365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.731972612710365</v>
+        <v>0.873423556917654</v>
       </c>
       <c r="E8" t="n">
-        <v>0.873423556917654</v>
+        <v>0.787425451430045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.787425451430045</v>
+        <v>0.586505829048438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.586505829048438</v>
+        <v>0.643460694813484</v>
       </c>
       <c r="H8" t="n">
-        <v>0.643460694813484</v>
+        <v>0.715145780417729</v>
       </c>
       <c r="I8" t="n">
-        <v>0.715145780417729</v>
+        <v>0.682980405531271</v>
       </c>
       <c r="J8" t="n">
-        <v>0.682980405531271</v>
+        <v>0.836791104476278</v>
       </c>
       <c r="K8" t="n">
-        <v>0.836791104476278</v>
+        <v>0.854225312098256</v>
       </c>
       <c r="L8" t="n">
-        <v>0.854225312098256</v>
+        <v>0.6953146471654</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6953146471654</v>
+        <v>0.861220065079599</v>
       </c>
       <c r="N8" t="n">
-        <v>0.861220065079599</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.454492739666233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.683123223291107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553640103437198</v>
+        <v>0.671370821981205</v>
       </c>
       <c r="D9" t="n">
-        <v>0.671370821981205</v>
+        <v>0.849473568651974</v>
       </c>
       <c r="E9" t="n">
-        <v>0.849473568651974</v>
+        <v>0.708494397058127</v>
       </c>
       <c r="F9" t="n">
-        <v>0.708494397058127</v>
+        <v>0.438857180180676</v>
       </c>
       <c r="G9" t="n">
-        <v>0.438857180180676</v>
+        <v>0.514556584884823</v>
       </c>
       <c r="H9" t="n">
-        <v>0.514556584884823</v>
+        <v>0.656047851343109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.656047851343109</v>
+        <v>0.60344269229444</v>
       </c>
       <c r="J9" t="n">
-        <v>0.60344269229444</v>
+        <v>0.858825470219245</v>
       </c>
       <c r="K9" t="n">
-        <v>0.858825470219245</v>
+        <v>0.868267260484353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.868267260484353</v>
+        <v>0.669358374420139</v>
       </c>
       <c r="M9" t="n">
-        <v>0.669358374420139</v>
+        <v>0.830923870403501</v>
       </c>
       <c r="N9" t="n">
-        <v>0.830923870403501</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.343601913157298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.682371653787096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.606023872797876</v>
+        <v>0.695056499414707</v>
       </c>
       <c r="D10" t="n">
-        <v>0.695056499414707</v>
+        <v>0.889808085182302</v>
       </c>
       <c r="E10" t="n">
-        <v>0.889808085182302</v>
+        <v>0.689889885121084</v>
       </c>
       <c r="F10" t="n">
-        <v>0.689889885121084</v>
+        <v>0.648147298677417</v>
       </c>
       <c r="G10" t="n">
-        <v>0.648147298677417</v>
+        <v>0.698572259799889</v>
       </c>
       <c r="H10" t="n">
-        <v>0.698572259799889</v>
+        <v>0.770942809545018</v>
       </c>
       <c r="I10" t="n">
-        <v>0.770942809545018</v>
+        <v>0.710087508866346</v>
       </c>
       <c r="J10" t="n">
-        <v>0.710087508866346</v>
+        <v>0.770097780765828</v>
       </c>
       <c r="K10" t="n">
-        <v>0.770097780765828</v>
+        <v>0.763530693008704</v>
       </c>
       <c r="L10" t="n">
-        <v>0.763530693008704</v>
+        <v>0.661649896053245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.661649896053245</v>
+        <v>0.841576010118254</v>
       </c>
       <c r="N10" t="n">
-        <v>0.841576010118254</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.450190602157014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.526444294027161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.458770252949589</v>
+        <v>0.483587107052056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.483587107052056</v>
+        <v>0.710735738553578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.710735738553578</v>
+        <v>0.530926465800458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.530926465800458</v>
+        <v>0.403161005281796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.403161005281796</v>
+        <v>0.432517119215557</v>
       </c>
       <c r="H11" t="n">
-        <v>0.432517119215557</v>
+        <v>0.485374406010005</v>
       </c>
       <c r="I11" t="n">
-        <v>0.485374406010005</v>
+        <v>0.474756209508454</v>
       </c>
       <c r="J11" t="n">
-        <v>0.474756209508454</v>
+        <v>0.695189510992556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.695189510992556</v>
+        <v>0.729294481740513</v>
       </c>
       <c r="L11" t="n">
-        <v>0.729294481740513</v>
+        <v>0.475175961400892</v>
       </c>
       <c r="M11" t="n">
-        <v>0.475175961400892</v>
+        <v>0.673509672793868</v>
       </c>
       <c r="N11" t="n">
-        <v>0.673509672793868</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.338595491710254</v>
       </c>
     </row>
